--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_5_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_5_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3504617.525209142</v>
+        <v>3508168.084996535</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6239134.533256416</v>
+        <v>6239134.533256418</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>840694.972106918</v>
+        <v>840694.9721069179</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8156471.592508764</v>
+        <v>8156471.592508763</v>
       </c>
     </row>
     <row r="11">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>290.995588829264</v>
+        <v>3.291181077703661</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -724,7 +724,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -785,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
       </c>
       <c r="T3" t="n">
-        <v>196.8897623984484</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U3" t="n">
         <v>225.8879277888686</v>
@@ -822,22 +822,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>52.10844059186255</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>54.47555601903397</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -861,16 +861,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -943,25 +943,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>26.53815412835747</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>270.7773459850746</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>147.3627673269532</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>114.3028656524357</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1144,10 +1144,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>52.96238797509616</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>283.7800869700859</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250821</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229336</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>72.65793777463476</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.60408762095367</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491435</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1426,7 +1426,7 @@
         <v>204.3497241367009</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0030623803219</v>
+        <v>251.0030623803221</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1530,22 +1530,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0700504016732</v>
+        <v>140.450806806822</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>90.92144028388266</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T13" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>43.62821763474189</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1660,10 +1660,10 @@
         <v>111.4352990145557</v>
       </c>
       <c r="T14" t="n">
-        <v>204.3497241367008</v>
+        <v>204.3497241367009</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0030623803221</v>
+        <v>251.0030623803219</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>28.81869974802235</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1776,10 +1776,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>46.62475515086422</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>90.92144028388266</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>190.5400452173542</v>
@@ -1824,7 +1824,7 @@
         <v>286.2142514133935</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1900,7 +1900,7 @@
         <v>204.3497241367009</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0030623803219</v>
+        <v>251.0030623803221</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>90.92144028388266</v>
       </c>
       <c r="S19" t="n">
-        <v>130.4482050673217</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T19" t="n">
         <v>219.7379838856521</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>74.69637495512222</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>166.0700504016732</v>
       </c>
       <c r="H25" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>90.92144028388266</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U25" t="n">
         <v>286.2142514133935</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>114.886292670177</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>97.4306050591458</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2572,7 +2572,7 @@
         <v>411.0203559212046</v>
       </c>
       <c r="H26" t="n">
-        <v>295.617861616927</v>
+        <v>295.6178616169272</v>
       </c>
       <c r="I26" t="n">
         <v>45.37937317040308</v>
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>63.36674797939985</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>130.4482050673217</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2142514133935</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2952,10 +2952,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.6178152390048</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>90.92144028388266</v>
       </c>
       <c r="S31" t="n">
         <v>190.5400452173542</v>
@@ -3006,10 +3006,10 @@
         <v>219.7379838856521</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2142514133935</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>204.5522107433609</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>119.740140031905</v>
       </c>
       <c r="C34" t="n">
-        <v>28.81869974802235</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>90.92144028388266</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>190.5400452173542</v>
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G35" t="n">
         <v>411.0203559212046</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>119.740140031905</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3435,16 +3435,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>97.71347105747184</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>97.68290229956055</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>90.92144028388266</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>190.5400452173542</v>
@@ -3480,13 +3480,13 @@
         <v>219.7379838856521</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3523,7 +3523,7 @@
         <v>295.6178616169272</v>
       </c>
       <c r="I38" t="n">
-        <v>45.37937317040308</v>
+        <v>45.37937317040289</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3663,10 +3663,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>83.34558498041409</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>166.0700504016732</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3714,10 +3714,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.7379838856521</v>
+        <v>38.96777076873646</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3948,22 +3948,22 @@
         <v>90.92144028388266</v>
       </c>
       <c r="S43" t="n">
-        <v>190.5400452173542</v>
+        <v>99.16636977080309</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U43" t="n">
         <v>286.2142514133935</v>
       </c>
       <c r="V43" t="n">
-        <v>154.7922963738919</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>39.52676478343898</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>90.92144028388266</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>130.4482050673217</v>
       </c>
       <c r="T46" t="n">
         <v>219.7379838856521</v>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1141.749745823171</v>
+        <v>1408.645612988121</v>
       </c>
       <c r="C2" t="n">
-        <v>772.7872288827589</v>
+        <v>1039.683096047709</v>
       </c>
       <c r="D2" t="n">
-        <v>478.8522906713811</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E2" t="n">
-        <v>478.8522906713811</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4363,19 +4363,19 @@
         <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2212.181128500977</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V2" t="n">
-        <v>1881.118241157406</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W2" t="n">
-        <v>1528.349585887292</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X2" t="n">
-        <v>1528.349585887292</v>
+        <v>1408.645612988121</v>
       </c>
       <c r="Y2" t="n">
-        <v>1528.349585887292</v>
+        <v>1408.645612988121</v>
       </c>
     </row>
     <row r="3">
@@ -4433,10 +4433,10 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
         <v>2289.884200196743</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>108.9687959810048</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>108.9687959810048</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D4" t="n">
-        <v>108.9687959810048</v>
+        <v>675.4941957298054</v>
       </c>
       <c r="E4" t="n">
-        <v>108.9687959810048</v>
+        <v>527.5811021474123</v>
       </c>
       <c r="F4" t="n">
-        <v>108.9687959810048</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="G4" t="n">
-        <v>108.9687959810048</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H4" t="n">
-        <v>108.9687959810048</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>336.2769833124031</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>108.9687959810048</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>108.9687959810048</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>108.9687959810048</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>108.9687959810048</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>108.9687959810048</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>108.9687959810048</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,7 +4543,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1222.906241876376</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C5" t="n">
         <v>1222.906241876376</v>
@@ -4567,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2670.342874726952</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2670.342874726952</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2339.279987383381</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W5" t="n">
-        <v>1986.511332113267</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="X5" t="n">
-        <v>1613.045573852188</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y5" t="n">
-        <v>1222.906241876376</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="6">
@@ -4652,16 +4652,16 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>507.3364050629043</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C7" t="n">
-        <v>338.4002221349974</v>
+        <v>397.6292392479589</v>
       </c>
       <c r="D7" t="n">
-        <v>338.4002221349974</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="E7" t="n">
-        <v>338.4002221349974</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>507.3364050629043</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>858.4397953655689</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>858.4397953655689</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>500.1740967588184</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>114.3858441605742</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>107.4403434113707</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
         <v>53.94298182036445</v>
@@ -4807,49 +4807,49 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224071</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280442</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
         <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642688</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2302.336936304455</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2302.336936304455</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>1971.274048960885</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>1618.50539369077</v>
+        <v>2355.473849053679</v>
       </c>
       <c r="X8" t="n">
-        <v>1245.039635429691</v>
+        <v>1982.008090792599</v>
       </c>
       <c r="Y8" t="n">
-        <v>1245.039635429691</v>
+        <v>1591.868758816787</v>
       </c>
     </row>
     <row r="9">
@@ -4874,7 +4874,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4883,25 +4883,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204942</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615926</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572643</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315295</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414846</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.07275543519</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.317569050018</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>698.7120650600557</v>
+        <v>296.2710210862863</v>
       </c>
       <c r="C10" t="n">
-        <v>529.7758821321488</v>
+        <v>127.3348381583794</v>
       </c>
       <c r="D10" t="n">
-        <v>379.6592427198131</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>231.7461491374199</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>84.85620163950958</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>84.85620163950958</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>84.85620163950958</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>84.85620163950958</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866325</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477909</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658207</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502497</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594897</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064339</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600557</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600557</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600557</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600557</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600557</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600557</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600557</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X10" t="n">
-        <v>698.7120650600557</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y10" t="n">
-        <v>698.7120650600557</v>
+        <v>477.919485916526</v>
       </c>
     </row>
     <row r="11">
@@ -5047,13 +5047,13 @@
         <v>1086.017693327009</v>
       </c>
       <c r="L11" t="n">
-        <v>1611.438070502395</v>
+        <v>1935.127558962002</v>
       </c>
       <c r="M11" t="n">
-        <v>2127.824549292078</v>
+        <v>2504.816728742196</v>
       </c>
       <c r="N11" t="n">
-        <v>2657.180509552854</v>
+        <v>3034.172689002972</v>
       </c>
       <c r="O11" t="n">
         <v>3520.693250262004</v>
@@ -5077,13 +5077,13 @@
         <v>4213.370243053372</v>
       </c>
       <c r="V11" t="n">
-        <v>3882.307355709802</v>
+        <v>3882.307355709801</v>
       </c>
       <c r="W11" t="n">
-        <v>3529.538700439688</v>
+        <v>3529.538700439687</v>
       </c>
       <c r="X11" t="n">
-        <v>3156.072942178608</v>
+        <v>3156.072942178607</v>
       </c>
       <c r="Y11" t="n">
         <v>2765.933610202796</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>727.2044188817068</v>
+        <v>682.2314169467231</v>
       </c>
       <c r="C13" t="n">
-        <v>558.2682359537999</v>
+        <v>682.2314169467231</v>
       </c>
       <c r="D13" t="n">
-        <v>558.2682359537999</v>
+        <v>532.1147775343874</v>
       </c>
       <c r="E13" t="n">
-        <v>410.3551423714068</v>
+        <v>384.2016839519943</v>
       </c>
       <c r="F13" t="n">
-        <v>263.4651948734965</v>
+        <v>384.2016839519943</v>
       </c>
       <c r="G13" t="n">
-        <v>95.71766921524075</v>
+        <v>242.3321821269216</v>
       </c>
       <c r="H13" t="n">
         <v>95.71766921524075</v>
@@ -5223,28 +5223,28 @@
         <v>1913.078649972671</v>
       </c>
       <c r="R13" t="n">
-        <v>1913.078649972671</v>
+        <v>1821.238811302082</v>
       </c>
       <c r="S13" t="n">
-        <v>1913.078649972671</v>
+        <v>1628.774119163341</v>
       </c>
       <c r="T13" t="n">
-        <v>1691.121090492214</v>
+        <v>1628.774119163341</v>
       </c>
       <c r="U13" t="n">
-        <v>1691.121090492214</v>
+        <v>1628.774119163341</v>
       </c>
       <c r="V13" t="n">
-        <v>1647.052183790455</v>
+        <v>1374.089630957454</v>
       </c>
       <c r="W13" t="n">
-        <v>1357.635013753494</v>
+        <v>1084.672460920493</v>
       </c>
       <c r="X13" t="n">
-        <v>1129.645462855477</v>
+        <v>1084.672460920493</v>
       </c>
       <c r="Y13" t="n">
-        <v>908.8528837119466</v>
+        <v>863.8798817769629</v>
       </c>
     </row>
     <row r="14">
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>95.71766921524075</v>
+        <v>289.7033289867513</v>
       </c>
       <c r="C16" t="n">
-        <v>95.71766921524075</v>
+        <v>289.7033289867513</v>
       </c>
       <c r="D16" t="n">
-        <v>95.71766921524075</v>
+        <v>289.7033289867513</v>
       </c>
       <c r="E16" t="n">
-        <v>95.71766921524075</v>
+        <v>289.7033289867513</v>
       </c>
       <c r="F16" t="n">
-        <v>95.71766921524075</v>
+        <v>142.813381488841</v>
       </c>
       <c r="G16" t="n">
         <v>95.71766921524075</v>
@@ -5460,28 +5460,28 @@
         <v>1913.078649972671</v>
       </c>
       <c r="R16" t="n">
-        <v>1821.238811302082</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="S16" t="n">
-        <v>1628.774119163341</v>
+        <v>1720.613957833929</v>
       </c>
       <c r="T16" t="n">
-        <v>1406.816559682884</v>
+        <v>1498.656398353472</v>
       </c>
       <c r="U16" t="n">
-        <v>1117.711255224911</v>
+        <v>1209.551093895499</v>
       </c>
       <c r="V16" t="n">
-        <v>863.0267670190239</v>
+        <v>1209.551093895499</v>
       </c>
       <c r="W16" t="n">
-        <v>573.6095969820633</v>
+        <v>920.1339238585385</v>
       </c>
       <c r="X16" t="n">
-        <v>345.620046084046</v>
+        <v>692.1443729605212</v>
       </c>
       <c r="Y16" t="n">
-        <v>124.8274669405158</v>
+        <v>471.3517938169911</v>
       </c>
     </row>
     <row r="17">
@@ -5500,13 +5500,13 @@
         <v>1652.105554591512</v>
       </c>
       <c r="E17" t="n">
-        <v>1266.317301993267</v>
+        <v>1266.317301993268</v>
       </c>
       <c r="F17" t="n">
         <v>855.3313972036599</v>
       </c>
       <c r="G17" t="n">
-        <v>440.1593205155743</v>
+        <v>440.1593205155741</v>
       </c>
       <c r="H17" t="n">
         <v>141.5554198924156</v>
@@ -5518,22 +5518,22 @@
         <v>443.7150397139484</v>
       </c>
       <c r="K17" t="n">
-        <v>790.1010928348242</v>
+        <v>1086.017693327009</v>
       </c>
       <c r="L17" t="n">
-        <v>1639.210958469817</v>
+        <v>1521.642956557056</v>
       </c>
       <c r="M17" t="n">
-        <v>2600.615835417405</v>
+        <v>2038.02943534674</v>
       </c>
       <c r="N17" t="n">
-        <v>3562.945250846045</v>
+        <v>2657.180509552854</v>
       </c>
       <c r="O17" t="n">
-        <v>4049.465812105077</v>
+        <v>3520.693250262004</v>
       </c>
       <c r="P17" t="n">
-        <v>4430.198854229707</v>
+        <v>4220.007013476401</v>
       </c>
       <c r="Q17" t="n">
         <v>4667.940766252041</v>
@@ -5551,13 +5551,13 @@
         <v>4213.370243053372</v>
       </c>
       <c r="V17" t="n">
-        <v>3882.307355709802</v>
+        <v>3882.307355709801</v>
       </c>
       <c r="W17" t="n">
-        <v>3529.538700439688</v>
+        <v>3529.538700439687</v>
       </c>
       <c r="X17" t="n">
-        <v>3156.072942178608</v>
+        <v>3156.072942178607</v>
       </c>
       <c r="Y17" t="n">
         <v>2765.933610202796</v>
@@ -5697,22 +5697,22 @@
         <v>1913.078649972671</v>
       </c>
       <c r="R19" t="n">
-        <v>1913.078649972671</v>
+        <v>1821.238811302082</v>
       </c>
       <c r="S19" t="n">
-        <v>1781.312786268305</v>
+        <v>1628.774119163341</v>
       </c>
       <c r="T19" t="n">
-        <v>1559.355226787849</v>
+        <v>1406.816559682884</v>
       </c>
       <c r="U19" t="n">
-        <v>1270.249922329876</v>
+        <v>1117.711255224911</v>
       </c>
       <c r="V19" t="n">
-        <v>1015.565434123989</v>
+        <v>863.0267670190239</v>
       </c>
       <c r="W19" t="n">
-        <v>726.1482640870279</v>
+        <v>573.6095969820633</v>
       </c>
       <c r="X19" t="n">
         <v>498.1587131890105</v>
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2379.333770138673</v>
+        <v>2379.333770138674</v>
       </c>
       <c r="C20" t="n">
-        <v>2010.371253198261</v>
+        <v>2010.371253198262</v>
       </c>
       <c r="D20" t="n">
-        <v>1652.105554591511</v>
+        <v>1652.105554591512</v>
       </c>
       <c r="E20" t="n">
         <v>1266.317301993267</v>
       </c>
       <c r="F20" t="n">
-        <v>855.3313972036598</v>
+        <v>855.3313972036599</v>
       </c>
       <c r="G20" t="n">
         <v>440.1593205155743</v>
@@ -5758,10 +5758,10 @@
         <v>1086.017693327009</v>
       </c>
       <c r="L20" t="n">
-        <v>1521.642956557056</v>
+        <v>1611.438070502395</v>
       </c>
       <c r="M20" t="n">
-        <v>2038.02943534674</v>
+        <v>2127.824549292078</v>
       </c>
       <c r="N20" t="n">
         <v>2657.180509552854</v>
@@ -5785,19 +5785,19 @@
         <v>4466.908689902182</v>
       </c>
       <c r="U20" t="n">
-        <v>4213.370243053371</v>
+        <v>4213.370243053372</v>
       </c>
       <c r="V20" t="n">
-        <v>3882.307355709801</v>
+        <v>3882.307355709802</v>
       </c>
       <c r="W20" t="n">
-        <v>3529.538700439686</v>
+        <v>3529.538700439688</v>
       </c>
       <c r="X20" t="n">
-        <v>3156.072942178606</v>
+        <v>3156.072942178608</v>
       </c>
       <c r="Y20" t="n">
-        <v>2765.933610202795</v>
+        <v>2765.933610202796</v>
       </c>
     </row>
     <row r="21">
@@ -5831,19 +5831,19 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J21" t="n">
-        <v>184.4590143936093</v>
+        <v>258.3150913629246</v>
       </c>
       <c r="K21" t="n">
-        <v>414.2869325418658</v>
+        <v>488.1430095111811</v>
       </c>
       <c r="L21" t="n">
-        <v>769.6414721740671</v>
+        <v>843.4975491433823</v>
       </c>
       <c r="M21" t="n">
-        <v>1203.680327106303</v>
+        <v>1277.536404075618</v>
       </c>
       <c r="N21" t="n">
-        <v>1663.615543921421</v>
+        <v>1737.471620890736</v>
       </c>
       <c r="O21" t="n">
         <v>2136.002693439725</v>
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2379.333770138674</v>
+        <v>2379.333770138673</v>
       </c>
       <c r="C23" t="n">
-        <v>2010.371253198262</v>
+        <v>2010.371253198261</v>
       </c>
       <c r="D23" t="n">
-        <v>1652.105554591512</v>
+        <v>1652.105554591511</v>
       </c>
       <c r="E23" t="n">
         <v>1266.317301993267</v>
       </c>
       <c r="F23" t="n">
-        <v>855.3313972036599</v>
+        <v>855.3313972036598</v>
       </c>
       <c r="G23" t="n">
         <v>440.1593205155743</v>
@@ -5989,28 +5989,28 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J23" t="n">
-        <v>443.7150397139484</v>
+        <v>276.3093906935954</v>
       </c>
       <c r="K23" t="n">
-        <v>1086.017693327009</v>
+        <v>597.708085861203</v>
       </c>
       <c r="L23" t="n">
-        <v>1611.438070502395</v>
+        <v>1446.817951496196</v>
       </c>
       <c r="M23" t="n">
-        <v>2127.824549292078</v>
+        <v>2408.222828443784</v>
       </c>
       <c r="N23" t="n">
-        <v>2657.180509552854</v>
+        <v>3370.552243872424</v>
       </c>
       <c r="O23" t="n">
-        <v>3520.693250262004</v>
+        <v>4114.52506777933</v>
       </c>
       <c r="P23" t="n">
-        <v>4220.007013476401</v>
+        <v>4495.258109903959</v>
       </c>
       <c r="Q23" t="n">
-        <v>4667.940766252041</v>
+        <v>4733.000021926293</v>
       </c>
       <c r="R23" t="n">
         <v>4785.883460762037</v>
@@ -6022,19 +6022,19 @@
         <v>4466.908689902182</v>
       </c>
       <c r="U23" t="n">
-        <v>4213.370243053372</v>
+        <v>4213.370243053371</v>
       </c>
       <c r="V23" t="n">
-        <v>3882.307355709802</v>
+        <v>3882.307355709801</v>
       </c>
       <c r="W23" t="n">
-        <v>3529.538700439688</v>
+        <v>3529.538700439686</v>
       </c>
       <c r="X23" t="n">
-        <v>3156.072942178608</v>
+        <v>3156.072942178606</v>
       </c>
       <c r="Y23" t="n">
-        <v>2765.933610202796</v>
+        <v>2765.933610202795</v>
       </c>
     </row>
     <row r="24">
@@ -6068,19 +6068,19 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J24" t="n">
-        <v>184.4590143936093</v>
+        <v>258.3150913629246</v>
       </c>
       <c r="K24" t="n">
-        <v>414.2869325418658</v>
+        <v>488.1430095111811</v>
       </c>
       <c r="L24" t="n">
-        <v>769.6414721740671</v>
+        <v>843.4975491433823</v>
       </c>
       <c r="M24" t="n">
-        <v>1203.680327106303</v>
+        <v>1277.536404075618</v>
       </c>
       <c r="N24" t="n">
-        <v>1663.615543921421</v>
+        <v>1737.471620890736</v>
       </c>
       <c r="O24" t="n">
         <v>2136.002693439725</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>579.0158907130842</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="C25" t="n">
-        <v>410.0797077851773</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="D25" t="n">
-        <v>410.0797077851773</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="E25" t="n">
-        <v>410.0797077851773</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="F25" t="n">
-        <v>410.0797077851773</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="G25" t="n">
-        <v>242.3321821269216</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H25" t="n">
         <v>95.71766921524075</v>
@@ -6171,28 +6171,28 @@
         <v>1913.078649972671</v>
       </c>
       <c r="R25" t="n">
-        <v>1913.078649972671</v>
+        <v>1821.238811302082</v>
       </c>
       <c r="S25" t="n">
-        <v>1913.078649972671</v>
+        <v>1628.774119163341</v>
       </c>
       <c r="T25" t="n">
-        <v>1913.078649972671</v>
+        <v>1406.816559682884</v>
       </c>
       <c r="U25" t="n">
-        <v>1623.973345514697</v>
+        <v>1117.711255224911</v>
       </c>
       <c r="V25" t="n">
-        <v>1369.288857308811</v>
+        <v>1001.664494952005</v>
       </c>
       <c r="W25" t="n">
-        <v>1079.87168727185</v>
+        <v>712.2473249150439</v>
       </c>
       <c r="X25" t="n">
-        <v>981.4569346868541</v>
+        <v>484.2577740170266</v>
       </c>
       <c r="Y25" t="n">
-        <v>760.6643555433239</v>
+        <v>263.4651948734965</v>
       </c>
     </row>
     <row r="26">
@@ -6208,16 +6208,16 @@
         <v>2010.371253198262</v>
       </c>
       <c r="D26" t="n">
-        <v>1652.105554591511</v>
+        <v>1652.105554591512</v>
       </c>
       <c r="E26" t="n">
-        <v>1266.317301993267</v>
+        <v>1266.317301993268</v>
       </c>
       <c r="F26" t="n">
-        <v>855.3313972036597</v>
+        <v>855.3313972036599</v>
       </c>
       <c r="G26" t="n">
-        <v>440.1593205155742</v>
+        <v>440.1593205155741</v>
       </c>
       <c r="H26" t="n">
         <v>141.5554198924156</v>
@@ -6226,28 +6226,28 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J26" t="n">
-        <v>276.3093906935954</v>
+        <v>443.7150397139484</v>
       </c>
       <c r="K26" t="n">
-        <v>597.708085861203</v>
+        <v>1086.017693327009</v>
       </c>
       <c r="L26" t="n">
-        <v>1446.817951496196</v>
+        <v>1611.438070502395</v>
       </c>
       <c r="M26" t="n">
-        <v>2288.68291164154</v>
+        <v>2127.824549292078</v>
       </c>
       <c r="N26" t="n">
-        <v>3251.012327070181</v>
+        <v>2657.180509552854</v>
       </c>
       <c r="O26" t="n">
-        <v>4114.52506777933</v>
+        <v>3520.693250262004</v>
       </c>
       <c r="P26" t="n">
-        <v>4495.258109903959</v>
+        <v>4220.007013476401</v>
       </c>
       <c r="Q26" t="n">
-        <v>4733.000021926293</v>
+        <v>4667.940766252041</v>
       </c>
       <c r="R26" t="n">
         <v>4785.883460762037</v>
@@ -6320,10 +6320,10 @@
         <v>1663.615543921421</v>
       </c>
       <c r="O27" t="n">
-        <v>2136.002693439725</v>
+        <v>2062.146616470409</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.525948037006</v>
+        <v>2362.66987106769</v>
       </c>
       <c r="Q27" t="n">
         <v>2587.498588679581</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>95.71766921524075</v>
+        <v>856.1880455474677</v>
       </c>
       <c r="C28" t="n">
-        <v>95.71766921524075</v>
+        <v>687.2518626195608</v>
       </c>
       <c r="D28" t="n">
-        <v>95.71766921524075</v>
+        <v>537.1352232072251</v>
       </c>
       <c r="E28" t="n">
-        <v>95.71766921524075</v>
+        <v>389.222129624832</v>
       </c>
       <c r="F28" t="n">
-        <v>95.71766921524075</v>
+        <v>242.3321821269216</v>
       </c>
       <c r="G28" t="n">
-        <v>95.71766921524075</v>
+        <v>242.3321821269216</v>
       </c>
       <c r="H28" t="n">
         <v>95.71766921524075</v>
@@ -6411,25 +6411,25 @@
         <v>1913.078649972671</v>
       </c>
       <c r="S28" t="n">
-        <v>1781.312786268305</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="T28" t="n">
-        <v>1559.355226787849</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="U28" t="n">
-        <v>1270.249922329876</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="V28" t="n">
-        <v>1015.565434123989</v>
+        <v>1658.394161766784</v>
       </c>
       <c r="W28" t="n">
-        <v>726.1482640870279</v>
+        <v>1368.976991729823</v>
       </c>
       <c r="X28" t="n">
-        <v>498.1587131890105</v>
+        <v>1140.987440831806</v>
       </c>
       <c r="Y28" t="n">
-        <v>277.3661340454805</v>
+        <v>920.1948616882756</v>
       </c>
     </row>
     <row r="29">
@@ -6454,7 +6454,7 @@
         <v>855.3313972036599</v>
       </c>
       <c r="G29" t="n">
-        <v>440.1593205155743</v>
+        <v>440.1593205155741</v>
       </c>
       <c r="H29" t="n">
         <v>141.5554198924156</v>
@@ -6463,28 +6463,28 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J29" t="n">
-        <v>276.3093906935954</v>
+        <v>443.7150397139484</v>
       </c>
       <c r="K29" t="n">
-        <v>597.708085861203</v>
+        <v>1086.017693327009</v>
       </c>
       <c r="L29" t="n">
-        <v>1446.817951496196</v>
+        <v>1521.642956557056</v>
       </c>
       <c r="M29" t="n">
-        <v>2408.222828443784</v>
+        <v>2038.02943534674</v>
       </c>
       <c r="N29" t="n">
-        <v>3370.552243872424</v>
+        <v>2657.180509552854</v>
       </c>
       <c r="O29" t="n">
-        <v>4114.52506777933</v>
+        <v>3520.693250262004</v>
       </c>
       <c r="P29" t="n">
-        <v>4495.258109903959</v>
+        <v>4220.007013476401</v>
       </c>
       <c r="Q29" t="n">
-        <v>4733.000021926293</v>
+        <v>4667.940766252041</v>
       </c>
       <c r="R29" t="n">
         <v>4785.883460762037</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>263.0083916788819</v>
+        <v>729.13253012542</v>
       </c>
       <c r="C31" t="n">
-        <v>263.0083916788819</v>
+        <v>560.1963471975131</v>
       </c>
       <c r="D31" t="n">
-        <v>263.0083916788819</v>
+        <v>410.0797077851773</v>
       </c>
       <c r="E31" t="n">
-        <v>263.0083916788819</v>
+        <v>410.0797077851773</v>
       </c>
       <c r="F31" t="n">
-        <v>263.0083916788819</v>
+        <v>410.0797077851773</v>
       </c>
       <c r="G31" t="n">
-        <v>95.71766921524075</v>
+        <v>242.3321821269216</v>
       </c>
       <c r="H31" t="n">
         <v>95.71766921524075</v>
@@ -6645,28 +6645,28 @@
         <v>1913.078649972671</v>
       </c>
       <c r="R31" t="n">
-        <v>1913.078649972671</v>
+        <v>1821.238811302082</v>
       </c>
       <c r="S31" t="n">
-        <v>1720.613957833929</v>
+        <v>1628.774119163341</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.656398353472</v>
+        <v>1406.816559682884</v>
       </c>
       <c r="U31" t="n">
-        <v>1209.551093895499</v>
+        <v>1406.816559682884</v>
       </c>
       <c r="V31" t="n">
-        <v>954.8666056896124</v>
+        <v>1200.19816499262</v>
       </c>
       <c r="W31" t="n">
-        <v>665.4494356526518</v>
+        <v>910.7809949556597</v>
       </c>
       <c r="X31" t="n">
-        <v>665.4494356526518</v>
+        <v>910.7809949556597</v>
       </c>
       <c r="Y31" t="n">
-        <v>444.6568565091217</v>
+        <v>910.7809949556597</v>
       </c>
     </row>
     <row r="32">
@@ -6706,19 +6706,19 @@
         <v>918.6120443066561</v>
       </c>
       <c r="L32" t="n">
-        <v>1767.721909941649</v>
+        <v>1354.237307536703</v>
       </c>
       <c r="M32" t="n">
-        <v>2284.108388731333</v>
+        <v>2315.642184484291</v>
       </c>
       <c r="N32" t="n">
-        <v>2813.464348992109</v>
+        <v>3277.971599912931</v>
       </c>
       <c r="O32" t="n">
-        <v>3585.752505936257</v>
+        <v>4114.52506777933</v>
       </c>
       <c r="P32" t="n">
-        <v>4285.066269150653</v>
+        <v>4495.258109903959</v>
       </c>
       <c r="Q32" t="n">
         <v>4733.000021926293</v>
@@ -6834,7 +6834,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>124.8274669405158</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="C34" t="n">
         <v>95.71766921524075</v>
@@ -6882,28 +6882,28 @@
         <v>1913.078649972671</v>
       </c>
       <c r="R34" t="n">
-        <v>1821.238811302082</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="S34" t="n">
-        <v>1628.774119163341</v>
+        <v>1720.613957833929</v>
       </c>
       <c r="T34" t="n">
-        <v>1406.816559682884</v>
+        <v>1498.656398353472</v>
       </c>
       <c r="U34" t="n">
-        <v>1117.711255224911</v>
+        <v>1209.551093895499</v>
       </c>
       <c r="V34" t="n">
-        <v>863.0267670190239</v>
+        <v>954.8666056896124</v>
       </c>
       <c r="W34" t="n">
-        <v>573.6095969820633</v>
+        <v>665.4494356526518</v>
       </c>
       <c r="X34" t="n">
-        <v>345.620046084046</v>
+        <v>437.4598847546345</v>
       </c>
       <c r="Y34" t="n">
-        <v>124.8274669405158</v>
+        <v>216.6673056111044</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2379.333770138673</v>
+        <v>2379.333770138674</v>
       </c>
       <c r="C35" t="n">
         <v>2010.371253198262</v>
@@ -6925,7 +6925,7 @@
         <v>1266.317301993267</v>
       </c>
       <c r="F35" t="n">
-        <v>855.3313972036598</v>
+        <v>855.3313972036599</v>
       </c>
       <c r="G35" t="n">
         <v>440.1593205155743</v>
@@ -6937,28 +6937,28 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J35" t="n">
-        <v>276.3093906935954</v>
+        <v>443.7150397139484</v>
       </c>
       <c r="K35" t="n">
-        <v>597.708085861203</v>
+        <v>1086.017693327009</v>
       </c>
       <c r="L35" t="n">
-        <v>1446.817951496196</v>
+        <v>1935.127558962002</v>
       </c>
       <c r="M35" t="n">
-        <v>2408.222828443784</v>
+        <v>2451.514037751685</v>
       </c>
       <c r="N35" t="n">
-        <v>3251.012327070181</v>
+        <v>2980.869998012462</v>
       </c>
       <c r="O35" t="n">
-        <v>4114.52506777933</v>
+        <v>3520.693250262004</v>
       </c>
       <c r="P35" t="n">
-        <v>4495.258109903959</v>
+        <v>4220.007013476401</v>
       </c>
       <c r="Q35" t="n">
-        <v>4733.000021926293</v>
+        <v>4667.940766252041</v>
       </c>
       <c r="R35" t="n">
         <v>4785.883460762037</v>
@@ -6967,22 +6967,22 @@
         <v>4673.322552666526</v>
       </c>
       <c r="T35" t="n">
-        <v>4466.908689902181</v>
+        <v>4466.908689902182</v>
       </c>
       <c r="U35" t="n">
-        <v>4213.370243053371</v>
+        <v>4213.370243053372</v>
       </c>
       <c r="V35" t="n">
         <v>3882.307355709801</v>
       </c>
       <c r="W35" t="n">
-        <v>3529.538700439686</v>
+        <v>3529.538700439687</v>
       </c>
       <c r="X35" t="n">
-        <v>3156.072942178606</v>
+        <v>3156.072942178607</v>
       </c>
       <c r="Y35" t="n">
-        <v>2765.933610202795</v>
+        <v>2765.933610202796</v>
       </c>
     </row>
     <row r="36">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>776.3859648110968</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="C37" t="n">
-        <v>607.4497818831899</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="D37" t="n">
-        <v>607.4497818831899</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="E37" t="n">
-        <v>607.4497818831899</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="F37" t="n">
-        <v>508.7493060675617</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="G37" t="n">
-        <v>341.001780409306</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H37" t="n">
-        <v>194.3872674976251</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="I37" t="n">
         <v>95.71766921524075</v>
@@ -7119,28 +7119,28 @@
         <v>1913.078649972671</v>
       </c>
       <c r="R37" t="n">
-        <v>1821.238811302082</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="S37" t="n">
-        <v>1628.774119163341</v>
+        <v>1720.613957833929</v>
       </c>
       <c r="T37" t="n">
-        <v>1406.816559682884</v>
+        <v>1498.656398353472</v>
       </c>
       <c r="U37" t="n">
-        <v>1406.816559682884</v>
+        <v>1209.551093895499</v>
       </c>
       <c r="V37" t="n">
-        <v>1406.816559682884</v>
+        <v>954.8666056896124</v>
       </c>
       <c r="W37" t="n">
-        <v>1406.816559682884</v>
+        <v>665.4494356526518</v>
       </c>
       <c r="X37" t="n">
-        <v>1178.827008784867</v>
+        <v>437.4598847546345</v>
       </c>
       <c r="Y37" t="n">
-        <v>958.0344296413365</v>
+        <v>216.6673056111044</v>
       </c>
     </row>
     <row r="38">
@@ -7156,46 +7156,46 @@
         <v>2010.371253198262</v>
       </c>
       <c r="D38" t="n">
-        <v>1652.105554591512</v>
+        <v>1652.105554591511</v>
       </c>
       <c r="E38" t="n">
-        <v>1266.317301993268</v>
+        <v>1266.317301993267</v>
       </c>
       <c r="F38" t="n">
-        <v>855.3313972036599</v>
+        <v>855.3313972036597</v>
       </c>
       <c r="G38" t="n">
-        <v>440.1593205155743</v>
+        <v>440.1593205155742</v>
       </c>
       <c r="H38" t="n">
-        <v>141.5554198924156</v>
+        <v>141.5554198924154</v>
       </c>
       <c r="I38" t="n">
         <v>95.71766921524075</v>
       </c>
       <c r="J38" t="n">
-        <v>276.3093906935954</v>
+        <v>443.7150397139484</v>
       </c>
       <c r="K38" t="n">
-        <v>597.708085861203</v>
+        <v>1086.017693327009</v>
       </c>
       <c r="L38" t="n">
-        <v>1327.278034693952</v>
+        <v>1935.127558962002</v>
       </c>
       <c r="M38" t="n">
-        <v>2288.68291164154</v>
+        <v>2504.816728742196</v>
       </c>
       <c r="N38" t="n">
-        <v>3251.012327070181</v>
+        <v>3034.172689002972</v>
       </c>
       <c r="O38" t="n">
-        <v>4114.52506777933</v>
+        <v>3520.693250262004</v>
       </c>
       <c r="P38" t="n">
-        <v>4495.258109903959</v>
+        <v>4220.007013476401</v>
       </c>
       <c r="Q38" t="n">
-        <v>4733.000021926293</v>
+        <v>4667.940766252041</v>
       </c>
       <c r="R38" t="n">
         <v>4785.883460762037</v>
@@ -7253,16 +7253,16 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J39" t="n">
-        <v>258.3150913629246</v>
+        <v>184.4590143936093</v>
       </c>
       <c r="K39" t="n">
-        <v>488.1430095111811</v>
+        <v>414.2869325418658</v>
       </c>
       <c r="L39" t="n">
-        <v>843.4975491433823</v>
+        <v>769.6414721740671</v>
       </c>
       <c r="M39" t="n">
-        <v>1277.536404075618</v>
+        <v>1203.680327106303</v>
       </c>
       <c r="N39" t="n">
         <v>1737.471620890736</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>516.5888373775792</v>
+        <v>410.0797077851773</v>
       </c>
       <c r="C40" t="n">
-        <v>347.6526544496724</v>
+        <v>410.0797077851773</v>
       </c>
       <c r="D40" t="n">
-        <v>263.4651948734965</v>
+        <v>410.0797077851773</v>
       </c>
       <c r="E40" t="n">
-        <v>263.4651948734965</v>
+        <v>410.0797077851773</v>
       </c>
       <c r="F40" t="n">
-        <v>263.4651948734965</v>
+        <v>410.0797077851773</v>
       </c>
       <c r="G40" t="n">
-        <v>95.71766921524075</v>
+        <v>242.3321821269216</v>
       </c>
       <c r="H40" t="n">
         <v>95.71766921524075</v>
@@ -7362,22 +7362,22 @@
         <v>1913.078649972671</v>
       </c>
       <c r="T40" t="n">
-        <v>1691.121090492214</v>
+        <v>1873.717265357785</v>
       </c>
       <c r="U40" t="n">
-        <v>1691.121090492214</v>
+        <v>1584.611960899812</v>
       </c>
       <c r="V40" t="n">
-        <v>1436.436602286327</v>
+        <v>1329.927472693925</v>
       </c>
       <c r="W40" t="n">
-        <v>1147.019432249366</v>
+        <v>1040.510302656965</v>
       </c>
       <c r="X40" t="n">
-        <v>919.0298813513491</v>
+        <v>812.5207517589472</v>
       </c>
       <c r="Y40" t="n">
-        <v>698.237302207819</v>
+        <v>591.7281726154171</v>
       </c>
     </row>
     <row r="41">
@@ -7396,13 +7396,13 @@
         <v>1652.105554591512</v>
       </c>
       <c r="E41" t="n">
-        <v>1266.317301993267</v>
+        <v>1266.317301993268</v>
       </c>
       <c r="F41" t="n">
         <v>855.3313972036599</v>
       </c>
       <c r="G41" t="n">
-        <v>440.1593205155743</v>
+        <v>440.1593205155741</v>
       </c>
       <c r="H41" t="n">
         <v>141.5554198924156</v>
@@ -7411,28 +7411,28 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J41" t="n">
-        <v>276.3093906935954</v>
+        <v>443.7150397139484</v>
       </c>
       <c r="K41" t="n">
-        <v>597.708085861203</v>
+        <v>1086.017693327009</v>
       </c>
       <c r="L41" t="n">
-        <v>1327.278034693952</v>
+        <v>1935.127558962002</v>
       </c>
       <c r="M41" t="n">
-        <v>2288.68291164154</v>
+        <v>2451.514037751685</v>
       </c>
       <c r="N41" t="n">
-        <v>3251.012327070181</v>
+        <v>2980.869998012462</v>
       </c>
       <c r="O41" t="n">
-        <v>4114.52506777933</v>
+        <v>3520.693250262004</v>
       </c>
       <c r="P41" t="n">
-        <v>4495.258109903959</v>
+        <v>4220.007013476401</v>
       </c>
       <c r="Q41" t="n">
-        <v>4733.000021926293</v>
+        <v>4667.940766252041</v>
       </c>
       <c r="R41" t="n">
         <v>4785.883460762037</v>
@@ -7447,13 +7447,13 @@
         <v>4213.370243053372</v>
       </c>
       <c r="V41" t="n">
-        <v>3882.307355709802</v>
+        <v>3882.307355709801</v>
       </c>
       <c r="W41" t="n">
-        <v>3529.538700439688</v>
+        <v>3529.538700439687</v>
       </c>
       <c r="X41" t="n">
-        <v>3156.072942178608</v>
+        <v>3156.072942178607</v>
       </c>
       <c r="Y41" t="n">
         <v>2765.933610202796</v>
@@ -7596,19 +7596,19 @@
         <v>1821.238811302082</v>
       </c>
       <c r="S43" t="n">
-        <v>1628.774119163341</v>
+        <v>1721.070761028544</v>
       </c>
       <c r="T43" t="n">
-        <v>1628.774119163341</v>
+        <v>1499.113201548087</v>
       </c>
       <c r="U43" t="n">
-        <v>1339.668814705367</v>
+        <v>1210.007897090114</v>
       </c>
       <c r="V43" t="n">
-        <v>1183.312959782244</v>
+        <v>955.3234088842269</v>
       </c>
       <c r="W43" t="n">
-        <v>893.8957897452837</v>
+        <v>665.9062388472663</v>
       </c>
       <c r="X43" t="n">
         <v>665.9062388472663</v>
@@ -7636,10 +7636,10 @@
         <v>1266.317301993268</v>
       </c>
       <c r="F44" t="n">
-        <v>855.33139720366</v>
+        <v>855.3313972036599</v>
       </c>
       <c r="G44" t="n">
-        <v>440.1593205155744</v>
+        <v>440.1593205155741</v>
       </c>
       <c r="H44" t="n">
         <v>141.5554198924156</v>
@@ -7648,28 +7648,28 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J44" t="n">
-        <v>276.3093906935954</v>
+        <v>443.7150397139484</v>
       </c>
       <c r="K44" t="n">
-        <v>597.708085861203</v>
+        <v>1086.017693327009</v>
       </c>
       <c r="L44" t="n">
-        <v>1327.278034693952</v>
+        <v>1521.642956557056</v>
       </c>
       <c r="M44" t="n">
-        <v>2288.68291164154</v>
+        <v>2038.02943534674</v>
       </c>
       <c r="N44" t="n">
-        <v>3251.012327070181</v>
+        <v>2657.180509552854</v>
       </c>
       <c r="O44" t="n">
-        <v>4114.52506777933</v>
+        <v>3520.693250262004</v>
       </c>
       <c r="P44" t="n">
-        <v>4495.258109903959</v>
+        <v>4220.007013476401</v>
       </c>
       <c r="Q44" t="n">
-        <v>4733.000021926293</v>
+        <v>4667.940766252041</v>
       </c>
       <c r="R44" t="n">
         <v>4785.883460762037</v>
@@ -7742,7 +7742,7 @@
         <v>1663.615543921421</v>
       </c>
       <c r="O45" t="n">
-        <v>2062.146616470409</v>
+        <v>2136.002693439725</v>
       </c>
       <c r="P45" t="n">
         <v>2436.525948037006</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>135.6436942490175</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="C46" t="n">
-        <v>135.6436942490175</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="D46" t="n">
-        <v>135.6436942490175</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="E46" t="n">
-        <v>135.6436942490175</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="F46" t="n">
-        <v>135.6436942490175</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="G46" t="n">
-        <v>135.6436942490175</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H46" t="n">
-        <v>135.6436942490175</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="I46" t="n">
         <v>95.71766921524075</v>
@@ -7830,28 +7830,28 @@
         <v>1913.078649972671</v>
       </c>
       <c r="R46" t="n">
-        <v>1821.238811302082</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="S46" t="n">
-        <v>1821.238811302082</v>
+        <v>1781.312786268305</v>
       </c>
       <c r="T46" t="n">
-        <v>1599.281251821626</v>
+        <v>1559.355226787849</v>
       </c>
       <c r="U46" t="n">
-        <v>1310.175947363652</v>
+        <v>1270.249922329876</v>
       </c>
       <c r="V46" t="n">
-        <v>1055.491459157765</v>
+        <v>1015.565434123989</v>
       </c>
       <c r="W46" t="n">
-        <v>766.0742891208047</v>
+        <v>726.1482640870279</v>
       </c>
       <c r="X46" t="n">
-        <v>538.0847382227873</v>
+        <v>498.1587131890105</v>
       </c>
       <c r="Y46" t="n">
-        <v>317.2921590792572</v>
+        <v>277.3661340454805</v>
       </c>
     </row>
   </sheetData>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8300,7 +8300,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8312,7 +8312,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.0269485415595</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747269</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8695,16 +8695,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>90.70213529832193</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>53.84110201061674</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -9166,25 +9166,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>25.23975550835166</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>90.70213529832199</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9406,13 +9406,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>90.70213529832193</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>90.70213529832199</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>380.8001812627454</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>74.60209794880339</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9494,7 +9494,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>74.60209794880365</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>90.70213529832193</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>260.0527905534082</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>74.60209794880339</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9731,7 +9731,7 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>74.60209794880365</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>90.70213529832193</v>
       </c>
       <c r="M26" t="n">
-        <v>328.7661427834956</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9968,13 +9968,13 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>74.60209794880365</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>74.6020979488037</v>
       </c>
       <c r="R27" t="n">
         <v>3.419393410990466</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>90.70213529832199</v>
       </c>
       <c r="O29" t="n">
-        <v>260.0527905534082</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10354,22 +10354,22 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>288.6541370556728</v>
+        <v>353.568592532694</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>316.5995337026472</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>53.84110201061708</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>296.9138238411135</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>53.84110201061674</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>74.60209794880339</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10913,7 +10913,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>74.60209794880348</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -11059,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>296.9138238411135</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>53.84110201061708</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>296.9138238411135</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>90.70213529832199</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11390,10 +11390,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>74.60209794880365</v>
       </c>
       <c r="P45" t="n">
-        <v>74.60209794880365</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -23418,22 +23418,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>25.61924359485121</v>
       </c>
       <c r="H13" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>97.68290229956055</v>
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>90.92144028388266</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U13" t="n">
         <v>286.2142514133935</v>
       </c>
       <c r="V13" t="n">
-        <v>208.5094256890861</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>151.013280433915</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23664,10 +23664,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0700504016732</v>
+        <v>119.445295250809</v>
       </c>
       <c r="H16" t="n">
         <v>145.148367782564</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>90.92144028388266</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>90.92144028388266</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>60.09184015003257</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>151.0132804339149</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I25" t="n">
         <v>97.68290229956055</v>
@@ -24411,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>90.92144028388266</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>137.2513506536509</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>128.2790503298913</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24600,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>116.4652322025375</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.0700504016732</v>
       </c>
       <c r="H28" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>97.68290229956055</v>
@@ -24651,13 +24651,13 @@
         <v>90.92144028388266</v>
       </c>
       <c r="S28" t="n">
-        <v>60.09184015003257</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24840,10 +24840,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24852,10 +24852,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0.4522351626683871</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>97.68290229956055</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>90.92144028388266</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,10 +24894,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>47.58543258046706</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>60.09184015003234</v>
       </c>
       <c r="C34" t="n">
-        <v>138.4281213506055</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>90.92144028388266</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>60.09184015003234</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25323,16 +25323,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>47.70757696545941</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>97.68290229956055</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>90.92144028388266</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,13 +25368,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2142514133935</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25551,10 +25551,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>65.26988803779827</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>97.68290229956055</v>
@@ -25602,10 +25602,10 @@
         <v>190.5400452173542</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>180.7702131169157</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2142514133935</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25836,22 +25836,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>91.37367544655113</v>
       </c>
       <c r="T43" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>97.34534694993607</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>145.148367782564</v>
       </c>
       <c r="I46" t="n">
-        <v>58.15613751612157</v>
+        <v>97.68290229956055</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>90.92144028388266</v>
       </c>
       <c r="S46" t="n">
-        <v>190.5400452173542</v>
+        <v>60.09184015003257</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>693150.2296043708</v>
+        <v>693150.2296043707</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>693150.2296043707</v>
+        <v>693150.2296043708</v>
       </c>
     </row>
     <row r="8">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>693150.2296043708</v>
+        <v>693150.2296043707</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>693150.2296043708</v>
+        <v>693150.2296043707</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>693150.2296043708</v>
+        <v>693150.2296043707</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>738937.5928778547</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778551</v>
+        <v>738937.5928778547</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778545</v>
+        <v>738937.5928778546</v>
       </c>
       <c r="E2" t="n">
-        <v>713716.743714647</v>
+        <v>713716.7437146469</v>
       </c>
       <c r="F2" t="n">
         <v>713716.7437146471</v>
       </c>
       <c r="G2" t="n">
+        <v>713716.743714647</v>
+      </c>
+      <c r="H2" t="n">
         <v>713716.7437146471</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>713716.7437146471</v>
+      </c>
+      <c r="J2" t="n">
+        <v>713716.7437146474</v>
+      </c>
+      <c r="K2" t="n">
         <v>713716.7437146469</v>
       </c>
-      <c r="I2" t="n">
+      <c r="L2" t="n">
+        <v>713716.7437146471</v>
+      </c>
+      <c r="M2" t="n">
         <v>713716.7437146469</v>
       </c>
-      <c r="J2" t="n">
-        <v>713716.7437146473</v>
-      </c>
-      <c r="K2" t="n">
-        <v>713716.7437146471</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>713716.7437146469</v>
       </c>
-      <c r="M2" t="n">
-        <v>713716.7437146473</v>
-      </c>
-      <c r="N2" t="n">
-        <v>713716.7437146474</v>
-      </c>
       <c r="O2" t="n">
-        <v>713716.7437146474</v>
+        <v>713716.743714647</v>
       </c>
       <c r="P2" t="n">
-        <v>713716.7437146474</v>
+        <v>713716.7437146469</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>708251.0967518286</v>
+        <v>708251.0967518282</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26420,31 +26420,31 @@
         <v>183348.686857128</v>
       </c>
       <c r="C4" t="n">
-        <v>183348.686857128</v>
+        <v>183348.6868571279</v>
       </c>
       <c r="D4" t="n">
         <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
-        <v>19876.24241659316</v>
+        <v>19876.24241659317</v>
       </c>
       <c r="F4" t="n">
         <v>19876.24241659317</v>
       </c>
       <c r="G4" t="n">
+        <v>19876.24241659317</v>
+      </c>
+      <c r="H4" t="n">
         <v>19876.24241659316</v>
       </c>
-      <c r="H4" t="n">
-        <v>19876.24241659317</v>
-      </c>
       <c r="I4" t="n">
-        <v>19876.24241659317</v>
+        <v>19876.24241659316</v>
       </c>
       <c r="J4" t="n">
         <v>19876.24241659317</v>
       </c>
       <c r="K4" t="n">
-        <v>19876.24241659316</v>
+        <v>19876.24241659317</v>
       </c>
       <c r="L4" t="n">
         <v>19876.24241659317</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-117238.0512572273</v>
+        <v>-117238.0512572271</v>
       </c>
       <c r="C6" t="n">
-        <v>472729.8279573177</v>
+        <v>472729.8279573173</v>
       </c>
       <c r="D6" t="n">
-        <v>472729.8279573173</v>
+        <v>472729.8279573171</v>
       </c>
       <c r="E6" t="n">
-        <v>-111078.8879892663</v>
+        <v>-110448.3667601859</v>
       </c>
       <c r="F6" t="n">
-        <v>597172.2087625624</v>
+        <v>597802.7299916425</v>
       </c>
       <c r="G6" t="n">
-        <v>597172.2087625624</v>
+        <v>597802.7299916424</v>
       </c>
       <c r="H6" t="n">
-        <v>597172.2087625621</v>
+        <v>597802.7299916425</v>
       </c>
       <c r="I6" t="n">
-        <v>597172.2087625621</v>
+        <v>597802.7299916425</v>
       </c>
       <c r="J6" t="n">
-        <v>420748.9895699694</v>
+        <v>421379.5107990498</v>
       </c>
       <c r="K6" t="n">
-        <v>597172.2087625624</v>
+        <v>597802.7299916423</v>
       </c>
       <c r="L6" t="n">
-        <v>597172.2087625621</v>
+        <v>597802.7299916425</v>
       </c>
       <c r="M6" t="n">
-        <v>467041.9687931531</v>
+        <v>467672.4900222329</v>
       </c>
       <c r="N6" t="n">
-        <v>597172.2087625626</v>
+        <v>597802.7299916423</v>
       </c>
       <c r="O6" t="n">
-        <v>597172.2087625626</v>
+        <v>597802.7299916424</v>
       </c>
       <c r="P6" t="n">
-        <v>597172.2087625626</v>
+        <v>597802.7299916423</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170863</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1065.242421490194</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>687.4987572731075</v>
+        <v>687.498757273107</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>522.1835924359538</v>
+        <v>522.1835924359536</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>63.68745279141899</v>
+        <v>351.3918605429793</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,7 +27435,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27444,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27542,25 +27542,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>96.50703242634981</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>80.49006577330425</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,16 +27581,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27663,25 +27663,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>189.9101662293003</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>78.46362273233837</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,22 +27773,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>19.88405377167464</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>31.11818237049552</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27864,10 +27864,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
-      </c>
-      <c r="G8" t="n">
-        <v>360.8217820456989</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27900,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748118</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>65.46088174732711</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>75.9575352435776</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>14.59587156758337</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340044</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140998</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554461</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727434</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081576</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630667</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405365</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338302</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119863</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954665</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044136</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633789</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727379</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473547</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472035</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141102</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188907</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890687</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396469</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478006</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.870296998312</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736698</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923045</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479576</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639064</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034977</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131471</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372662</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619148</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078604</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644436</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492003</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813573</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302232</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246923</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666593</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175835</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383792</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678003</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701161</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197221</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315607</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181309</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343418</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435299</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060962</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492234</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.563508753045</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116796</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898688</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770683</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713856</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262936</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338901</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245896</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735645</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535759</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713947</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850084</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535654</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
-        <v>148.3708461458879</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.866414655798</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873141</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35415,16 +35415,16 @@
         <v>648.7905592051118</v>
       </c>
       <c r="L11" t="n">
-        <v>530.7276537125106</v>
+        <v>857.6867329646391</v>
       </c>
       <c r="M11" t="n">
-        <v>521.6025038279633</v>
+        <v>575.4436058385801</v>
       </c>
       <c r="N11" t="n">
         <v>534.7029901624001</v>
       </c>
       <c r="O11" t="n">
-        <v>872.2350916254038</v>
+        <v>491.4349103626585</v>
       </c>
       <c r="P11" t="n">
         <v>706.3775386004008</v>
@@ -35886,25 +35886,25 @@
         <v>351.5124954532401</v>
       </c>
       <c r="K17" t="n">
-        <v>349.8849021422987</v>
+        <v>648.7905592051118</v>
       </c>
       <c r="L17" t="n">
-        <v>857.6867329646391</v>
+        <v>440.0255184141886</v>
       </c>
       <c r="M17" t="n">
-        <v>971.1160373207958</v>
+        <v>521.6025038279633</v>
       </c>
       <c r="N17" t="n">
-        <v>972.0499145743842</v>
+        <v>625.405125460722</v>
       </c>
       <c r="O17" t="n">
-        <v>491.4349103626585</v>
+        <v>872.2350916254038</v>
       </c>
       <c r="P17" t="n">
-        <v>384.5788304289183</v>
+        <v>706.3775386004008</v>
       </c>
       <c r="Q17" t="n">
-        <v>240.1433454771049</v>
+        <v>452.4583361370096</v>
       </c>
       <c r="R17" t="n">
         <v>119.1340348585825</v>
@@ -36126,13 +36126,13 @@
         <v>648.7905592051118</v>
       </c>
       <c r="L20" t="n">
-        <v>440.0255184141886</v>
+        <v>530.7276537125106</v>
       </c>
       <c r="M20" t="n">
         <v>521.6025038279633</v>
       </c>
       <c r="N20" t="n">
-        <v>625.405125460722</v>
+        <v>534.7029901624001</v>
       </c>
       <c r="O20" t="n">
         <v>872.2350916254038</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>89.63772240239243</v>
+        <v>164.2398203511958</v>
       </c>
       <c r="K21" t="n">
         <v>232.1494122709661</v>
@@ -36214,7 +36214,7 @@
         <v>464.581027085978</v>
       </c>
       <c r="O21" t="n">
-        <v>477.1587368871756</v>
+        <v>402.556638938372</v>
       </c>
       <c r="P21" t="n">
         <v>303.5588430275571</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>351.5124954532401</v>
+        <v>182.4158802811663</v>
       </c>
       <c r="K23" t="n">
-        <v>648.7905592051118</v>
+        <v>324.645146633947</v>
       </c>
       <c r="L23" t="n">
-        <v>530.7276537125106</v>
+        <v>857.6867329646391</v>
       </c>
       <c r="M23" t="n">
-        <v>521.6025038279633</v>
+        <v>971.1160373207958</v>
       </c>
       <c r="N23" t="n">
-        <v>534.7029901624001</v>
+        <v>972.0499145743842</v>
       </c>
       <c r="O23" t="n">
-        <v>872.2350916254038</v>
+        <v>751.4877009160666</v>
       </c>
       <c r="P23" t="n">
-        <v>706.3775386004008</v>
+        <v>384.5788304289183</v>
       </c>
       <c r="Q23" t="n">
-        <v>452.4583361370096</v>
+        <v>240.1433454771049</v>
       </c>
       <c r="R23" t="n">
-        <v>119.1340348585825</v>
+        <v>53.4176149856001</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>89.63772240239243</v>
+        <v>164.2398203511958</v>
       </c>
       <c r="K24" t="n">
         <v>232.1494122709661</v>
@@ -36451,7 +36451,7 @@
         <v>464.581027085978</v>
       </c>
       <c r="O24" t="n">
-        <v>477.1587368871756</v>
+        <v>402.556638938372</v>
       </c>
       <c r="P24" t="n">
         <v>303.5588430275571</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>182.4158802811663</v>
+        <v>351.5124954532401</v>
       </c>
       <c r="K26" t="n">
-        <v>324.645146633947</v>
+        <v>648.7905592051118</v>
       </c>
       <c r="L26" t="n">
-        <v>857.6867329646391</v>
+        <v>530.7276537125106</v>
       </c>
       <c r="M26" t="n">
-        <v>850.368646611459</v>
+        <v>521.6025038279633</v>
       </c>
       <c r="N26" t="n">
-        <v>972.0499145743842</v>
+        <v>534.7029901624001</v>
       </c>
       <c r="O26" t="n">
         <v>872.2350916254038</v>
       </c>
       <c r="P26" t="n">
-        <v>384.5788304289183</v>
+        <v>706.3775386004008</v>
       </c>
       <c r="Q26" t="n">
-        <v>240.1433454771049</v>
+        <v>452.4583361370096</v>
       </c>
       <c r="R26" t="n">
-        <v>53.4176149856001</v>
+        <v>119.1340348585825</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36688,13 +36688,13 @@
         <v>464.581027085978</v>
       </c>
       <c r="O27" t="n">
-        <v>477.1587368871756</v>
+        <v>402.556638938372</v>
       </c>
       <c r="P27" t="n">
         <v>303.5588430275571</v>
       </c>
       <c r="Q27" t="n">
-        <v>152.4976168106822</v>
+        <v>227.0997147594859</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>182.4158802811663</v>
+        <v>351.5124954532401</v>
       </c>
       <c r="K29" t="n">
-        <v>324.645146633947</v>
+        <v>648.7905592051118</v>
       </c>
       <c r="L29" t="n">
-        <v>857.6867329646391</v>
+        <v>440.0255184141886</v>
       </c>
       <c r="M29" t="n">
-        <v>971.1160373207958</v>
+        <v>521.6025038279633</v>
       </c>
       <c r="N29" t="n">
-        <v>972.0499145743842</v>
+        <v>625.405125460722</v>
       </c>
       <c r="O29" t="n">
-        <v>751.4877009160666</v>
+        <v>872.2350916254038</v>
       </c>
       <c r="P29" t="n">
-        <v>384.5788304289183</v>
+        <v>706.3775386004008</v>
       </c>
       <c r="Q29" t="n">
-        <v>240.1433454771049</v>
+        <v>452.4583361370096</v>
       </c>
       <c r="R29" t="n">
-        <v>53.4176149856001</v>
+        <v>119.1340348585825</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37074,22 +37074,22 @@
         <v>648.7905592051118</v>
       </c>
       <c r="L32" t="n">
-        <v>857.6867329646391</v>
+        <v>440.0255184141886</v>
       </c>
       <c r="M32" t="n">
-        <v>521.6025038279633</v>
+        <v>971.1160373207958</v>
       </c>
       <c r="N32" t="n">
-        <v>534.7029901624001</v>
+        <v>972.0499145743842</v>
       </c>
       <c r="O32" t="n">
-        <v>780.0890474183312</v>
+        <v>845.0035028953524</v>
       </c>
       <c r="P32" t="n">
-        <v>706.3775386004008</v>
+        <v>384.5788304289183</v>
       </c>
       <c r="Q32" t="n">
-        <v>452.4583361370096</v>
+        <v>240.1433454771049</v>
       </c>
       <c r="R32" t="n">
         <v>53.4176149856001</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>182.4158802811663</v>
+        <v>351.5124954532401</v>
       </c>
       <c r="K35" t="n">
-        <v>324.645146633947</v>
+        <v>648.7905592051118</v>
       </c>
       <c r="L35" t="n">
         <v>857.6867329646391</v>
       </c>
       <c r="M35" t="n">
-        <v>971.1160373207958</v>
+        <v>521.6025038279633</v>
       </c>
       <c r="N35" t="n">
-        <v>851.3025238650473</v>
+        <v>534.7029901624001</v>
       </c>
       <c r="O35" t="n">
-        <v>872.2350916254038</v>
+        <v>545.2760123732755</v>
       </c>
       <c r="P35" t="n">
-        <v>384.5788304289183</v>
+        <v>706.3775386004008</v>
       </c>
       <c r="Q35" t="n">
-        <v>240.1433454771049</v>
+        <v>452.4583361370096</v>
       </c>
       <c r="R35" t="n">
-        <v>53.4176149856001</v>
+        <v>119.1340348585825</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>182.4158802811663</v>
+        <v>351.5124954532401</v>
       </c>
       <c r="K38" t="n">
-        <v>324.645146633947</v>
+        <v>648.7905592051118</v>
       </c>
       <c r="L38" t="n">
-        <v>736.9393422553021</v>
+        <v>857.6867329646391</v>
       </c>
       <c r="M38" t="n">
-        <v>971.1160373207958</v>
+        <v>575.4436058385801</v>
       </c>
       <c r="N38" t="n">
-        <v>972.0499145743842</v>
+        <v>534.7029901624001</v>
       </c>
       <c r="O38" t="n">
-        <v>872.2350916254038</v>
+        <v>491.4349103626585</v>
       </c>
       <c r="P38" t="n">
-        <v>384.5788304289183</v>
+        <v>706.3775386004008</v>
       </c>
       <c r="Q38" t="n">
-        <v>240.1433454771049</v>
+        <v>452.4583361370096</v>
       </c>
       <c r="R38" t="n">
-        <v>53.4176149856001</v>
+        <v>119.1340348585825</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>164.2398203511958</v>
+        <v>89.63772240239243</v>
       </c>
       <c r="K39" t="n">
         <v>232.1494122709661</v>
@@ -37633,7 +37633,7 @@
         <v>438.4230857901371</v>
       </c>
       <c r="N39" t="n">
-        <v>464.581027085978</v>
+        <v>539.1831250347815</v>
       </c>
       <c r="O39" t="n">
         <v>402.556638938372</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>182.4158802811663</v>
+        <v>351.5124954532401</v>
       </c>
       <c r="K41" t="n">
-        <v>324.645146633947</v>
+        <v>648.7905592051118</v>
       </c>
       <c r="L41" t="n">
-        <v>736.9393422553021</v>
+        <v>857.6867329646391</v>
       </c>
       <c r="M41" t="n">
-        <v>971.1160373207958</v>
+        <v>521.6025038279633</v>
       </c>
       <c r="N41" t="n">
-        <v>972.0499145743842</v>
+        <v>534.7029901624001</v>
       </c>
       <c r="O41" t="n">
-        <v>872.2350916254038</v>
+        <v>545.2760123732755</v>
       </c>
       <c r="P41" t="n">
-        <v>384.5788304289183</v>
+        <v>706.3775386004008</v>
       </c>
       <c r="Q41" t="n">
-        <v>240.1433454771049</v>
+        <v>452.4583361370096</v>
       </c>
       <c r="R41" t="n">
-        <v>53.4176149856001</v>
+        <v>119.1340348585825</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>182.4158802811663</v>
+        <v>351.5124954532401</v>
       </c>
       <c r="K44" t="n">
-        <v>324.645146633947</v>
+        <v>648.7905592051118</v>
       </c>
       <c r="L44" t="n">
-        <v>736.9393422553021</v>
+        <v>440.0255184141886</v>
       </c>
       <c r="M44" t="n">
-        <v>971.1160373207958</v>
+        <v>521.6025038279633</v>
       </c>
       <c r="N44" t="n">
-        <v>972.0499145743842</v>
+        <v>625.405125460722</v>
       </c>
       <c r="O44" t="n">
         <v>872.2350916254038</v>
       </c>
       <c r="P44" t="n">
-        <v>384.5788304289183</v>
+        <v>706.3775386004008</v>
       </c>
       <c r="Q44" t="n">
-        <v>240.1433454771049</v>
+        <v>452.4583361370096</v>
       </c>
       <c r="R44" t="n">
-        <v>53.4176149856001</v>
+        <v>119.1340348585825</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38110,10 +38110,10 @@
         <v>464.581027085978</v>
       </c>
       <c r="O45" t="n">
-        <v>402.556638938372</v>
+        <v>477.1587368871756</v>
       </c>
       <c r="P45" t="n">
-        <v>378.1609409763607</v>
+        <v>303.5588430275571</v>
       </c>
       <c r="Q45" t="n">
         <v>152.4976168106822</v>
